--- a/SeleniumFramework/excel/data.xlsx
+++ b/SeleniumFramework/excel/data.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775BBAF0-124F-4574-82A7-34CEDDD7D801}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{244E2CF7-4E8F-4E3C-AA11-3C014B204E25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="1710" windowWidth="16335" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16365" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>From</t>
   </si>
@@ -32,6 +33,9 @@
   </si>
   <si>
     <t>SGN</t>
+  </si>
+  <si>
+    <t>fltnum</t>
   </si>
 </sst>
 </file>
@@ -352,7 +356,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,6 +368,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
